--- a/src/admin/Menu.xlsx
+++ b/src/admin/Menu.xlsx
@@ -691,7 +691,7 @@
       <c r="E6" s="5"/>
       <c r="F6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="30.75">
       <c r="A7" s="2"/>
       <c r="B7" s="4"/>
       <c r="C7" s="1" t="s">
@@ -707,7 +707,7 @@
         <v>166.47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="30.75">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="1" t="s">
@@ -723,7 +723,7 @@
         <v>168.25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="47.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="43.5">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="1" t="s">
@@ -739,7 +739,7 @@
         <v>132.88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="E10" s="5"/>
       <c r="F10" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="2"/>
       <c r="B11" s="1" t="s">
         <v>30</v>
@@ -767,7 +767,7 @@
       <c r="E11" s="5"/>
       <c r="F11" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="1" t="s">
@@ -783,7 +783,7 @@
         <v>2700.79</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="1" t="s">
@@ -799,7 +799,7 @@
         <v>3100.33</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="1" t="s">
@@ -815,7 +815,7 @@
         <v>1850.42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
@@ -829,7 +829,7 @@
       <c r="E15" s="5"/>
       <c r="F15" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="30.75">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="1" t="s">
@@ -845,7 +845,7 @@
         <v>420.78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="30.75">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="1" t="s">
@@ -861,7 +861,7 @@
         <v>440.11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="48">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="44.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="1" t="s">
@@ -877,7 +877,7 @@
         <v>520.08</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -885,7 +885,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -893,7 +893,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -901,7 +901,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="7"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
